--- a/Excel/镇魂街/plot.剧情.xlsx
+++ b/Excel/镇魂街/plot.剧情.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801F7FF3-A7F0-496B-8DAC-584E76D53BBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26595" windowHeight="7830"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="剧情表" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>aaa</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -123,11 +124,12 @@
           <t xml:space="preserve">
 触发剧情的场景关键字
 主城 HomeScene
-战斗场景 BattleScene</t>
+战斗场景 BattleScene
+剧情场景 StoryScene</t>
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -339,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>sheet名</t>
   </si>
@@ -488,20 +490,22 @@
     <t>BattleScene</t>
   </si>
   <si>
-    <t>StdBattleStoryRoot</t>
-  </si>
-  <si>
-    <t>StdStoryRoot</t>
-  </si>
-  <si>
     <t>plot.lua</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryScene</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -716,27 +720,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1008,11 +1012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1053,20 +1057,20 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="3" t="b">
@@ -1105,7 +1109,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1115,11 +1119,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1297,331 +1301,814 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>101</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10103</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>102</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10309</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>103</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10312</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>104</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10315</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>105</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10403</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>106</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10409</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>107</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10509</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>108</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10515</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>109</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10609</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>110</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10615</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>111</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="5">
+        <v>10703</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>112</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10706</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>113</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10809</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>114</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10812</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>115</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10815</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>116</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10903</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>117</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10909</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>118</v>
+      </c>
+      <c r="B21" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="3">
-        <v>1110101</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>102</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1110101</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>45</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>3</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>103</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1110101</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>46</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <v>3</v>
-      </c>
-      <c r="O6" s="3">
-        <v>3</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>104</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1110101</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>47</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2</v>
-      </c>
-      <c r="N7" s="3">
-        <v>4</v>
-      </c>
-      <c r="O7" s="3">
-        <v>3</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>105</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1110101</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>48</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>5</v>
-      </c>
-      <c r="O8" s="3">
-        <v>7</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>106</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1110101</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
-        <v>49</v>
-      </c>
-      <c r="M9" s="3">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
-        <v>6</v>
-      </c>
-      <c r="O9" s="3">
-        <v>7</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100001</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F21" s="5">
+        <v>10915</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/Excel/镇魂街/plot.剧情.xlsx
+++ b/Excel/镇魂街/plot.剧情.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\ZHJStaffSpace\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801F7FF3-A7F0-496B-8DAC-584E76D53BBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27150" windowHeight="13230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="剧情表" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>aaa</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:
@@ -43,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,14 +45,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -69,7 +60,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,14 +67,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -93,7 +82,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -102,14 +90,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -118,7 +105,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -129,14 +115,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -145,7 +130,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -154,14 +138,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -170,22 +153,22 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-剧情预设的名字</t>
+剧情需要的场景名
+留空的话,为当前的主
+场景</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -194,22 +177,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-剧情原点的位置</t>
+剧情预设的名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -218,22 +199,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-剧情原点的旋转</t>
+剧情原点的位置</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -242,7 +221,28 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+剧情原点的旋转</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>aaa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -256,14 +256,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -272,7 +271,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -280,14 +278,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:
@@ -297,7 +294,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -307,14 +303,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -323,7 +318,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -341,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>sheet名</t>
   </si>
@@ -370,6 +364,9 @@
     <t>剧情表</t>
   </si>
   <si>
+    <t>plot.lua</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -385,12 +382,15 @@
     <t>Next</t>
   </si>
   <si>
-    <t>Scene</t>
+    <t>Keyword</t>
   </si>
   <si>
     <t>LevelId</t>
   </si>
   <si>
+    <t>SceneName</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -433,6 +433,9 @@
     <t>string:&lt;</t>
   </si>
   <si>
+    <t>string:e&lt;</t>
+  </si>
+  <si>
     <t>float:&lt;&gt;</t>
   </si>
   <si>
@@ -448,12 +451,15 @@
     <t>下一个ID</t>
   </si>
   <si>
-    <t>触发场景</t>
+    <t>触发关键字</t>
   </si>
   <si>
     <t>触发关卡ID</t>
   </si>
   <si>
+    <t>场景名</t>
+  </si>
+  <si>
     <t>预设名</t>
   </si>
   <si>
@@ -487,26 +493,26 @@
     <t>参数:角色Hp百分比(0~1)</t>
   </si>
   <si>
+    <t>StoryScene</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
     <t>BattleScene</t>
-  </si>
-  <si>
-    <t>plot.lua</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryScene</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,46 +525,161 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,40 +687,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,36 +736,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -667,6 +975,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -677,79 +1035,315 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="55">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="超链接 2" xfId="57"/>
+    <cellStyle name="文本" xfId="58"/>
+    <cellStyle name="无效" xfId="59"/>
+    <cellStyle name="中文标题" xfId="60"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1007,19 +1601,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1030,7 +1624,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1056,1064 +1650,1092 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="47.25" customHeight="1" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+    <row r="3" ht="57.75" customHeight="1" spans="1:8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+    <row r="4" ht="54" customHeight="1" spans="1:8">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+    <row r="5" ht="55.5" customHeight="1" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
-    <col min="15" max="15" width="14.375" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="22.75" customWidth="1"/>
+    <col min="6" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
+      <c r="R2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" ht="15" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" ht="16.5" spans="1:18">
+      <c r="A4" s="3">
         <v>101</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3">
         <v>10103</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" ht="16.5" spans="1:18">
+      <c r="A5" s="3">
         <v>102</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3">
         <v>10309</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" ht="16.5" spans="1:18">
+      <c r="A6" s="3">
         <v>103</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3">
         <v>10312</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" ht="16.5" spans="1:18">
+      <c r="A7" s="3">
         <v>104</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3">
         <v>10315</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" ht="16.5" spans="1:18">
+      <c r="A8" s="3">
         <v>105</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3">
         <v>10403</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" ht="16.5" spans="1:18">
+      <c r="A9" s="3">
         <v>106</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3">
         <v>10409</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" ht="16.5" spans="1:18">
+      <c r="A10" s="3">
         <v>107</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3">
         <v>10509</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" ht="16.5" spans="1:18">
+      <c r="A11" s="3">
         <v>108</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3">
         <v>10515</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" ht="16.5" spans="1:18">
+      <c r="A12" s="3">
         <v>109</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3">
         <v>10609</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" ht="16.5" spans="1:18">
+      <c r="A13" s="3">
         <v>110</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3">
         <v>10615</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" ht="16.5" spans="1:18">
+      <c r="A14" s="3">
         <v>111</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3">
         <v>10703</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" ht="16.5" spans="1:18">
+      <c r="A15" s="3">
         <v>112</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3">
         <v>10706</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" ht="16.5" spans="1:18">
+      <c r="A16" s="3">
         <v>113</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3">
         <v>10809</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="17" ht="16.5" spans="1:18">
+      <c r="A17" s="3">
         <v>114</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="3">
         <v>10812</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" ht="16.5" spans="1:18">
+      <c r="A18" s="3">
         <v>115</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="3">
         <v>10815</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+    <row r="19" ht="16.5" spans="1:18">
+      <c r="A19" s="3">
         <v>116</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="3">
         <v>10903</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="20" ht="16.5" spans="1:18">
+      <c r="A20" s="3">
         <v>117</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3">
         <v>10909</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="21" ht="16.5" spans="1:18">
+      <c r="A21" s="3">
         <v>118</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="3">
         <v>10915</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/plot.剧情.xlsx
+++ b/Excel/镇魂街/plot.剧情.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\ZHJStaffSpace\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E1A6DA-FED1-4C9E-B1DB-AD23EBD0F4DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13230" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="剧情表" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>aaa</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:
@@ -36,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,13 +53,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -60,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -67,13 +77,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -82,6 +93,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -90,13 +102,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -105,6 +118,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -115,13 +129,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -130,6 +145,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -138,13 +154,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -153,6 +170,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -162,13 +180,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -177,6 +196,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -184,13 +204,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -199,6 +220,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -206,13 +228,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -221,6 +244,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -228,13 +252,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -243,6 +268,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -256,13 +282,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -271,6 +298,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -278,13 +306,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:
@@ -294,6 +323,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -303,13 +333,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0">
+    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aaa:</t>
@@ -318,6 +349,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -335,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>sheet名</t>
   </si>
@@ -496,23 +528,60 @@
     <t>StoryScene</t>
   </si>
   <si>
-    <t>1_1</t>
+    <t>Story_TestRoom_03</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_TestRoom_02</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>BattleScene</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_luoshajiedao_1-4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryScene</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_TestRoom_01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_luoshajiedao_1-1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_1_1</t>
+  </si>
+  <si>
+    <t>lcj_1_2</t>
+  </si>
+  <si>
+    <t>lcj_2_1</t>
+  </si>
+  <si>
+    <t>lcj_2_2</t>
+  </si>
+  <si>
+    <t>lcj_3_1</t>
+  </si>
+  <si>
+    <t>lcj_3_2</t>
+  </si>
+  <si>
+    <t>lcj_3_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,161 +594,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,14 +632,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -703,25 +641,40 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,85 +689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,109 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,14 +717,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -975,56 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1035,315 +752,79 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1601,19 +1082,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1624,7 +1105,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:8">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1153,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" ht="57.75" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1682,7 +1163,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1692,7 +1173,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1702,29 +1183,29 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="7" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="11" max="11" width="11.375" customWidth="1"/>
     <col min="12" max="12" width="11.25" customWidth="1"/>
@@ -1736,7 +1217,7 @@
     <col min="18" max="18" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:18">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1848,7 +1329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:18">
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1904,7 +1385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:18">
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -1919,11 +1400,13 @@
         <v>52</v>
       </c>
       <c r="F4" s="3">
-        <v>10103</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>10104</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1950,7 +1433,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:18">
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -1958,18 +1441,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="3">
-        <v>10309</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>10104</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H5" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1996,7 +1481,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:18">
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -2004,18 +1489,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="3">
-        <v>10312</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>10104</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H6" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -2042,7 +1529,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:18">
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>104</v>
       </c>
@@ -2050,18 +1537,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="3">
-        <v>10315</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>10104</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -2088,7 +1577,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:18">
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>105</v>
       </c>
@@ -2103,11 +1592,13 @@
         <v>52</v>
       </c>
       <c r="F8" s="3">
-        <v>10403</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>10107</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -2134,7 +1625,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:18">
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>106</v>
       </c>
@@ -2142,18 +1633,20 @@
         <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F9" s="3">
-        <v>10409</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>10107</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -2180,7 +1673,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:18">
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>107</v>
       </c>
@@ -2192,14 +1685,16 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F10" s="3">
-        <v>10509</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>10108</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2226,516 +1721,10 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:18">
-      <c r="A11" s="3">
-        <v>108</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10515</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:18">
-      <c r="A12" s="3">
-        <v>109</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="3">
-        <v>10609</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:18">
-      <c r="A13" s="3">
-        <v>110</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="3">
-        <v>10615</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:18">
-      <c r="A14" s="3">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3">
-        <v>10703</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:18">
-      <c r="A15" s="3">
-        <v>112</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="3">
-        <v>10706</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:18">
-      <c r="A16" s="3">
-        <v>113</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="3">
-        <v>10809</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:18">
-      <c r="A17" s="3">
-        <v>114</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="3">
-        <v>10812</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:18">
-      <c r="A18" s="3">
-        <v>115</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3">
-        <v>10815</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:18">
-      <c r="A19" s="3">
-        <v>116</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="3">
-        <v>10903</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:18">
-      <c r="A20" s="3">
-        <v>117</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="3">
-        <v>10909</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:18">
-      <c r="A21" s="3">
-        <v>118</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="3">
-        <v>10915</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/plot.剧情.xlsx
+++ b/Excel/镇魂街/plot.剧情.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E1A6DA-FED1-4C9E-B1DB-AD23EBD0F4DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE37DC91-22B4-4591-A642-987E1C8F82B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>sheet名</t>
   </si>
@@ -575,6 +575,10 @@
   </si>
   <si>
     <t>lcj_3_3</t>
+  </si>
+  <si>
+    <t>Map_luoshajiedao_1-5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1198,7 +1202,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1455,7 @@
         <v>10104</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>61</v>
@@ -1547,7 +1551,7 @@
         <v>10104</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>63</v>

--- a/Excel/镇魂街/plot.剧情.xlsx
+++ b/Excel/镇魂街/plot.剧情.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE37DC91-22B4-4591-A642-987E1C8F82B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="剧情表" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>aaa</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +583,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -807,19 +806,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="9"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="10"/>
+    <cellStyle name="无效" xfId="11"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="12"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1091,7 +1090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1198,11 +1197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1404,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="3">
-        <v>10104</v>
+        <v>11504</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>53</v>
@@ -1452,7 +1451,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="3">
-        <v>10104</v>
+        <v>11504</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>67</v>
@@ -1500,7 +1499,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="3">
-        <v>10104</v>
+        <v>11504</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>54</v>
@@ -1548,7 +1547,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="3">
-        <v>10104</v>
+        <v>11504</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>67</v>
@@ -1596,7 +1595,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="3">
-        <v>10107</v>
+        <v>11507</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>59</v>
@@ -1644,7 +1643,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="3">
-        <v>10107</v>
+        <v>11507</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>58</v>
@@ -1692,7 +1691,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="3">
-        <v>10108</v>
+        <v>11508</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>56</v>

--- a/Excel/镇魂街/plot.剧情.xlsx
+++ b/Excel/镇魂街/plot.剧情.xlsx
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="3">
-        <v>11504</v>
+        <v>10104</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>53</v>
@@ -1451,7 +1451,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="3">
-        <v>11504</v>
+        <v>10104</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>67</v>
@@ -1499,7 +1499,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="3">
-        <v>11504</v>
+        <v>10104</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>54</v>
@@ -1547,7 +1547,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="3">
-        <v>11504</v>
+        <v>10104</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>67</v>
@@ -1595,7 +1595,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="3">
-        <v>11507</v>
+        <v>10107</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>59</v>
@@ -1643,7 +1643,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="3">
-        <v>11507</v>
+        <v>10107</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>58</v>

--- a/Excel/镇魂街/plot.剧情.xlsx
+++ b/Excel/镇魂街/plot.剧情.xlsx
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F4" sqref="F4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="3">
-        <v>10104</v>
+        <v>11508</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>53</v>
@@ -1451,7 +1451,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="3">
-        <v>10104</v>
+        <v>11508</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>67</v>
@@ -1499,7 +1499,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="3">
-        <v>10104</v>
+        <v>11508</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>54</v>
@@ -1547,7 +1547,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="3">
-        <v>10104</v>
+        <v>11508</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>67</v>
@@ -1595,7 +1595,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="3">
-        <v>10107</v>
+        <v>11508</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>59</v>
@@ -1643,7 +1643,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="3">
-        <v>10107</v>
+        <v>11508</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>58</v>

--- a/Excel/镇魂街/plot.剧情.xlsx
+++ b/Excel/镇魂街/plot.剧情.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="剧情表" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -25,135 +20,7 @@
     <author>aaa</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>aaa:
-剧情触发类型</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 战斗场景之外触发的剧情
-2 战斗场景中,布阵前触发的剧情
-3 战斗场景中,战斗过程中触发的剧情</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>aaa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-同类型剧情中的排序,顺序触发</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>aaa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-这条剧情触发后,下一条触发的剧情的索引,不填的话,会为本条剧情索引+1
-注意:必须比本剧情索引值大,否则会默认为本条剧情索引+1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>aaa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发剧情的场景关键字
-主城 HomeScene
-战斗场景 BattleScene
-剧情场景 StoryScene</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>aaa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发剧情的关卡ID
-相当于与游戏进度相关</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>sheet名</t>
   </si>
@@ -404,21 +271,6 @@
     <t>客户端的剧情表</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>LevelId</t>
-  </si>
-  <si>
     <t>SceneName</t>
   </si>
   <si>
@@ -473,21 +325,6 @@
     <t>float:e&lt;</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>索引</t>
-  </si>
-  <si>
-    <t>下一个ID</t>
-  </si>
-  <si>
-    <t>触发关键字</t>
-  </si>
-  <si>
-    <t>触发关卡ID</t>
-  </si>
-  <si>
     <t>场景名</t>
   </si>
   <si>
@@ -524,66 +361,154 @@
     <t>参数:角色Hp百分比(0~1)</t>
   </si>
   <si>
-    <t>StoryScene</t>
-  </si>
-  <si>
-    <t>Story_TestRoom_03</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story_TestRoom_02</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleScene</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_luoshajiedao_1-4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryScene</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story_TestRoom_01</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_luoshajiedao_1-1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>lcj_1_1</t>
-  </si>
-  <si>
-    <t>lcj_1_2</t>
-  </si>
-  <si>
-    <t>lcj_2_1</t>
-  </si>
-  <si>
-    <t>lcj_2_2</t>
-  </si>
-  <si>
-    <t>lcj_3_1</t>
-  </si>
-  <si>
-    <t>lcj_3_2</t>
-  </si>
-  <si>
-    <t>lcj_3_3</t>
-  </si>
-  <si>
-    <t>Map_luoshajiedao_1-5</t>
+  </si>
+  <si>
+    <t>Map_luoshajiedao_1-4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_1</t>
+  </si>
+  <si>
+    <t>xsyd_2</t>
+  </si>
+  <si>
+    <t>xsyd_3</t>
+  </si>
+  <si>
+    <t>xsyd_4</t>
+  </si>
+  <si>
+    <t>[empty]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string:&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导抽卡对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次抽卡对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导关卡对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>青果巷视频剧情1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>青果巷视频剧情2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗刹街视频剧情1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗刹街视频剧情2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>武灵技引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机产出引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技商店引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>集训营引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵入侵引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器系统引导对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>武灵技兑换对话剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证武灵技对话剧情</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,7 +712,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -803,6 +728,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1198,218 +1130,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="11.25" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="16.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="17.5" customWidth="1"/>
-    <col min="18" max="18" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>52</v>
+      <c r="B4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>11508</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1418,46 +1314,36 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>102</v>
       </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>52</v>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>11508</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1466,46 +1352,36 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>103</v>
       </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>52</v>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>11508</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1514,46 +1390,36 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>104</v>
       </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>11508</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1562,46 +1428,36 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>105</v>
       </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
       <c r="F8" s="3">
-        <v>11508</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1610,46 +1466,36 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>106</v>
       </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>57</v>
+      <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>11508</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1658,76 +1504,662 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>107</v>
       </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
       <c r="F10" s="3">
-        <v>11508</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>108</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>109</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>110</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>111</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>112</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>113</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>114</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>115</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>116</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>117</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>118</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>119</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>120</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>121</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>122</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>123</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/plot.剧情.xlsx
+++ b/Excel/镇魂街/plot.剧情.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="剧情表" sheetId="26" r:id="rId2"/>
+    <sheet name="弹幕" sheetId="27" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -18,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>aaa</author>
+    <author>as</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0">
@@ -46,7 +48,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>as:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0.否
+1.是</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,11 +173,12 @@
 ---     3:回合开始
 ---     4:回合结束
 ---     5:角色开始行动
----     6:角色行动结束</t>
+---     6:角色行动结束
+---     7;结算结束</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="196">
   <si>
     <t>sheet名</t>
   </si>
@@ -359,25 +389,6 @@
   </si>
   <si>
     <t>参数:角色Hp百分比(0~1)</t>
-  </si>
-  <si>
-    <t>Map_luoshajiedao_1-4</t>
-  </si>
-  <si>
-    <t>Map_luoshajiedao_1-4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsyd_1</t>
-  </si>
-  <si>
-    <t>xsyd_2</t>
-  </si>
-  <si>
-    <t>xsyd_3</t>
-  </si>
-  <si>
-    <t>xsyd_4</t>
   </si>
   <si>
     <t>[empty]</t>
@@ -409,107 +420,564 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>xsyd_5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导抽卡对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次抽卡对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导关卡对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>青果巷视频剧情1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>青果巷视频剧情2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗刹街视频剧情1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗刹街视频剧情2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>武灵技引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升级引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱道引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>探险对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机产出引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通灵引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技商店引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>集训营引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶灵入侵引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器强化引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器解封引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器系统引导对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>武灵技兑换对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证武灵技对话剧情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>xsyd_2_2_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_2_2_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_3_1_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_3_2_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>武灵技引导对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>武灵技兑换对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗刹街首次战斗前-视频</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗1内战斗前对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次战斗后视频</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次战斗后视频（特殊打断）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入主城抽卡引导对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入抽卡界面后对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次抽卡对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡后进入关卡对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡1-1对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡1-1召唤守护灵对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级引导对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵突破引导对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>武灵技装备对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机产出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>集训营</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器系统</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_3_2_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_3_2_3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_2_1_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_2_1_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次战斗内对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_9_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guajichanchu_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanxian_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>diyudao_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_3_2_4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_6_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_6_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_7_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_7_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_8_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_8_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_9_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_9_3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongling_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingjichang_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jixunying_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>elingruqin_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqiqianghua_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuqijiefeng_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>luhuagulou_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenqi_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsyd_12_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人技能升级对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinengshengji_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>danmaku.lua</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlotId</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情Id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否遮黑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shade</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次战斗后对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>起名后对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道引导对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_1_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_1_7</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_1_9</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_2_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_2_2</t>
+  </si>
+  <si>
+    <t>lcj_2_6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_2_8</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_3_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_3_6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_3_10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7战前对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9战后返回关卡对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-8战前对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1纯对话剧情关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2纯视频剧情关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1纯视频剧情关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6纯视频剧情+对话（有背景图）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-10纯剧情关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6战前对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3战前对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-11结算后视频剧情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-11战前对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>满编战斗对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3战前对话</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_3_3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_2_11_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcj_2_11_2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;上什么B站？滚去code&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;斗什么地主？滚去code&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;吃什么鸡？滚去code&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;Csdn，标准程序猿无疑&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;一波房租，口袋清空，要什么记账app？&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;不是住公司么，骑什么自行车&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;欢乐豆不够了，快充钱！&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;公司不管饭？投诉！&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;哪家公司管饭？还收人么？&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;桌面啥意思？求解释&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;好惨不解释&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;好惨不解释&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;好惨不解释&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;夏铃是设计狮，这又来个程序猿，组队做游戏？&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;我狗策划前来报到&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;中介你的黑西装呢？&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;鬼街信号满格？中国移动就是diao&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;电信表示不服&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;联通表示不服&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;什么单间要1000一个月这么贵？&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;北京1000地下室了解下&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;三线小镇300无压力&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;大半夜看房，确定不是鬼屋？&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;高能预警，敌军还有5秒到达战场&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;联系个鬼&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;您的室友贞子已上线&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;秃头怪火冒三丈&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;秃头怪火冒三丈&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;秃头怪火冒三丈&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;许褚即将到达战场&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;10连抽并不足以激发我的潜力&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;需要百人斩&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;前面百人斩的等等我&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;来跟我念灰化肥会挥发&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;隔夜饭的气息迎面而来&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;多吃面条&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;程序猿酸性体质官方证明！&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;你该洗脚了&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;充钱使你强大&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;非酋救心丸药效免疫&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;我有速效救心丸一瓶，卖你一瓶可敢答应？&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;三精蓝屏的酸心&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;程序猿的屏你都敢蓝？&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3f793f&gt;蓝色走一波！！&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#f6b305&gt;我怀疑你在开车，并且有证据！&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;曹魔王，准时宝马上到点了，再不送到你的历练值就要清空了。&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +1069,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -681,7 +1171,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -711,8 +1201,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -736,12 +1227,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Grid" xfId="4"/>
     <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="常规 3" xfId="13"/>
     <cellStyle name="超链接 2" xfId="9"/>
     <cellStyle name="大标题" xfId="6"/>
     <cellStyle name="横向标题" xfId="1"/>
@@ -1026,7 +1522,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1089,13 +1585,25 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -1130,85 +1638,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1226,7 +1738,7 @@
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -1235,68 +1747,74 @@
         <v>25</v>
       </c>
       <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1314,27 +1832,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>102</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1352,28 +1873,31 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>103</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
@@ -1390,28 +1914,31 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>104</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
@@ -1428,28 +1955,31 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>105</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -1466,27 +1996,30 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>106</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1504,27 +2037,30 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>107</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -1542,27 +2078,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>108</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -1580,27 +2119,30 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>109</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1618,27 +2160,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>110</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1656,27 +2201,30 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>111</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1694,27 +2242,30 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>112</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1732,27 +2283,30 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>113</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1770,27 +2324,30 @@
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>114</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>64</v>
+      <c r="B17" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1808,27 +2365,30 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>115</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>65</v>
+      <c r="B18" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1846,27 +2406,30 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>116</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>66</v>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1884,27 +2447,30 @@
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>117</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>67</v>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1922,27 +2488,30 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>118</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>68</v>
+      <c r="B21" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1960,27 +2529,30 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>119</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>69</v>
+      <c r="B22" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1998,27 +2570,30 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>120</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>70</v>
+      <c r="B23" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -2036,27 +2611,30 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>121</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>71</v>
+      <c r="B24" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2074,27 +2652,30 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>122</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>72</v>
+      <c r="B25" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -2112,27 +2693,30 @@
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>123</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -2150,11 +2734,875 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>124</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>125</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>126</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>127</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>128</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>129</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>130</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>131</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>10102</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>10107</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>10109</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>7</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>10201</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>1</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>10203</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>1</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>10206</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>1</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>10208</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>1</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>10211</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>1</v>
+      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>10212</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>7</v>
+      </c>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>10301</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>1</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>10303</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>1</v>
+      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>10306</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>10310</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <v>1</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2162,4 +3610,714 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10" style="9" customWidth="1"/>
+    <col min="4" max="4" width="104.75" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>101</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>101</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>101</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>101</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>101</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>101</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>101</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>101</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>101</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>101</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>101</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>101</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>101</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>101</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>102</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>102</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>102</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>102</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>102</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>102</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>102</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>102</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>103</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>103</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>103</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4">
+        <v>103</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4">
+        <v>103</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4">
+        <v>103</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4">
+        <v>103</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4">
+        <v>104</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4">
+        <v>104</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4">
+        <v>104</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4">
+        <v>104</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4">
+        <v>104</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4">
+        <v>105</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4">
+        <v>105</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4">
+        <v>105</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4">
+        <v>105</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4">
+        <v>105</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4">
+        <v>105</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4">
+        <v>105</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4">
+        <v>106</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/plot.剧情.xlsx
+++ b/Excel/镇魂街/plot.剧情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1640,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2016,7 +2016,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>49</v>
@@ -2057,7 +2057,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>74</v>
@@ -3616,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3886,7 +3886,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -3942,7 +3942,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -3970,7 +3970,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
